--- a/Outputs/settlement_load_calculations.xlsx
+++ b/Outputs/settlement_load_calculations.xlsx
@@ -451,7 +451,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>s (ft)</t>
+          <t>s (m)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -480,13 +480,13 @@
         <v>4.2e-05</v>
       </c>
       <c r="B2" t="n">
-        <v>0.06819330677321832</v>
+        <v>0.4623764173048603</v>
       </c>
       <c r="C2" t="n">
         <v>9.999999999999999e-06</v>
       </c>
       <c r="D2" t="n">
-        <v>9.999999999999999e-05</v>
+        <v>3e-05</v>
       </c>
       <c r="E2" t="n">
         <v>8.992895864504934</v>
@@ -495,10 +495,10 @@
         <v>0.5390134361310499</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6132553064677914</v>
+        <v>4.158102971025486</v>
       </c>
       <c r="H2" t="n">
-        <v>8.830876413136195</v>
+        <v>37.42292673922937</v>
       </c>
     </row>
     <row r="3">
@@ -506,13 +506,13 @@
         <v>0.0051723</v>
       </c>
       <c r="B3" t="n">
-        <v>8.398005729121971</v>
+        <v>56.94165579109287</v>
       </c>
       <c r="C3" t="n">
         <v>0.0012315</v>
       </c>
       <c r="D3" t="n">
-        <v>0.012315</v>
+        <v>0.0036945</v>
       </c>
       <c r="E3" t="n">
         <v>2.511507295994209</v>
@@ -521,10 +521,10 @@
         <v>0.5390134361310499</v>
       </c>
       <c r="G3" t="n">
-        <v>21.09165266049099</v>
+        <v>143.0093839653206</v>
       </c>
       <c r="H3" t="n">
-        <v>303.7197983110703</v>
+        <v>1287.084455687886</v>
       </c>
     </row>
     <row r="4">
@@ -532,13 +532,13 @@
         <v>0.010387097</v>
       </c>
       <c r="B4" t="n">
-        <v>16.86501171914731</v>
+        <v>114.351159453762</v>
       </c>
       <c r="C4" t="n">
         <v>0.002473118333333333</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02473118333333333</v>
+        <v>0.007419354999999999</v>
       </c>
       <c r="E4" t="n">
         <v>2.087803718436897</v>
@@ -547,10 +547,10 @@
         <v>0.5390134361310499</v>
       </c>
       <c r="G4" t="n">
-        <v>35.2108341787176</v>
+        <v>238.7427759151349</v>
       </c>
       <c r="H4" t="n">
-        <v>507.0360121735335</v>
+        <v>2148.684983236214</v>
       </c>
     </row>
     <row r="5">
@@ -558,13 +558,13 @@
         <v>0.021225806</v>
       </c>
       <c r="B5" t="n">
-        <v>34.4632833349248</v>
+        <v>233.6740983973307</v>
       </c>
       <c r="C5" t="n">
         <v>0.005053763333333333</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05053763333333333</v>
+        <v>0.01516129</v>
       </c>
       <c r="E5" t="n">
         <v>1.72759371687616</v>
@@ -573,10 +573,10 @@
         <v>0.5390134361310499</v>
       </c>
       <c r="G5" t="n">
-        <v>59.53855175233895</v>
+        <v>403.6939041879301</v>
       </c>
       <c r="H5" t="n">
-        <v>857.3551452336808</v>
+        <v>3633.24513769137</v>
       </c>
     </row>
     <row r="6">
@@ -584,13 +584,13 @@
         <v>0.03116129</v>
       </c>
       <c r="B6" t="n">
-        <v>49.57200561446445</v>
+        <v>335.6602946744452</v>
       </c>
       <c r="C6" t="n">
         <v>0.007419354761904762</v>
       </c>
       <c r="D6" t="n">
-        <v>0.07419354761904762</v>
+        <v>0.02225806428571429</v>
       </c>
       <c r="E6" t="n">
         <v>1.560459630855398</v>
@@ -599,10 +599,10 @@
         <v>0.5390134361310499</v>
       </c>
       <c r="G6" t="n">
-        <v>77.35511358190891</v>
+        <v>523.7843395204989</v>
       </c>
       <c r="H6" t="n">
-        <v>1113.913635579488</v>
+        <v>4714.05905568449</v>
       </c>
     </row>
     <row r="7">
@@ -610,13 +610,13 @@
         <v>0.042451613</v>
       </c>
       <c r="B7" t="n">
-        <v>64.54673328091005</v>
+        <v>436.4318896258937</v>
       </c>
       <c r="C7" t="n">
         <v>0.0101075269047619</v>
       </c>
       <c r="D7" t="n">
-        <v>0.101075269047619</v>
+        <v>0.03032258071428572</v>
       </c>
       <c r="E7" t="n">
         <v>1.437701296305211</v>
@@ -625,10 +625,10 @@
         <v>0.5390134361310499</v>
       </c>
       <c r="G7" t="n">
-        <v>92.7989221102311</v>
+        <v>627.4586934640803</v>
       </c>
       <c r="H7" t="n">
-        <v>1336.304478387328</v>
+        <v>5647.128241176722</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         <v>0.06277419400000001</v>
       </c>
       <c r="B8" t="n">
-        <v>87.59220241703565</v>
+        <v>591.8499531502088</v>
       </c>
       <c r="C8" t="n">
         <v>0.01494623666666667</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1494623666666667</v>
+        <v>0.04483871</v>
       </c>
       <c r="E8" t="n">
         <v>1.296130179223889</v>
@@ -651,10 +651,10 @@
         <v>0.5390134361310499</v>
       </c>
       <c r="G8" t="n">
-        <v>113.5308970174076</v>
+        <v>767.1145858502304</v>
       </c>
       <c r="H8" t="n">
-        <v>1634.844917050669</v>
+        <v>6904.031272652073</v>
       </c>
     </row>
     <row r="9">
@@ -662,13 +662,13 @@
         <v>0.08400000000000001</v>
       </c>
       <c r="B9" t="n">
-        <v>103.6457323381782</v>
+        <v>700.2789288726643</v>
       </c>
       <c r="C9" t="n">
         <v>0.02</v>
       </c>
       <c r="D9" t="n">
-        <v>0.2</v>
+        <v>0.06</v>
       </c>
       <c r="E9" t="n">
         <v>1.199849059904631</v>
@@ -677,10 +677,10 @@
         <v>0.5390134361310499</v>
       </c>
       <c r="G9" t="n">
-        <v>124.3592345090901</v>
+        <v>840.2290144788884</v>
       </c>
       <c r="H9" t="n">
-        <v>1790.772976930897</v>
+        <v>7562.061130309996</v>
       </c>
     </row>
     <row r="10">
@@ -688,13 +688,13 @@
         <v>0.127354839</v>
       </c>
       <c r="B10" t="n">
-        <v>123.5442400747799</v>
+        <v>835.2073150282934</v>
       </c>
       <c r="C10" t="n">
         <v>0.03032258071428571</v>
       </c>
       <c r="D10" t="n">
-        <v>0.3032258071428571</v>
+        <v>0.09096774214285713</v>
       </c>
       <c r="E10" t="n">
         <v>1.074562132073212</v>
@@ -703,10 +703,10 @@
         <v>0.5390134361310499</v>
       </c>
       <c r="G10" t="n">
-        <v>132.7559620201203</v>
+        <v>897.4821531599455</v>
       </c>
       <c r="H10" t="n">
-        <v>1911.685853089732</v>
+        <v>8077.339378439509</v>
       </c>
     </row>
     <row r="11">
@@ -714,13 +714,13 @@
         <v>0.169806452</v>
       </c>
       <c r="B11" t="n">
-        <v>137.1588990419043</v>
+        <v>926.8872635845004</v>
       </c>
       <c r="C11" t="n">
         <v>0.04043010761904762</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4043010761904762</v>
+        <v>0.1212903228571429</v>
       </c>
       <c r="E11" t="n">
         <v>0.9956868389138492</v>
@@ -729,10 +729,10 @@
         <v>0.5390134361310499</v>
       </c>
       <c r="G11" t="n">
-        <v>136.5673106159375</v>
+        <v>922.8894495079589</v>
       </c>
       <c r="H11" t="n">
-        <v>1966.569272869499</v>
+        <v>8306.00504557163</v>
       </c>
     </row>
     <row r="12">
@@ -740,13 +740,13 @@
         <v>0.210451613</v>
       </c>
       <c r="B12" t="n">
-        <v>143.1794119345246</v>
+        <v>967.1077592961077</v>
       </c>
       <c r="C12" t="n">
         <v>0.0501075269047619</v>
       </c>
       <c r="D12" t="n">
-        <v>0.501075269047619</v>
+        <v>0.1503225807142857</v>
       </c>
       <c r="E12" t="n">
         <v>0.9406439743692828</v>
@@ -755,10 +755,10 @@
         <v>0.5390134361310499</v>
       </c>
       <c r="G12" t="n">
-        <v>134.6808510899479</v>
+        <v>909.7040863476625</v>
       </c>
       <c r="H12" t="n">
-        <v>1939.40425569525</v>
+        <v>8187.336777128962</v>
       </c>
     </row>
     <row r="13">
@@ -766,13 +766,13 @@
         <v>0.252903226</v>
       </c>
       <c r="B13" t="n">
-        <v>147.7651672628571</v>
+        <v>998.2599087619441</v>
       </c>
       <c r="C13" t="n">
         <v>0.0602150538095238</v>
       </c>
       <c r="D13" t="n">
-        <v>0.602150538095238</v>
+        <v>0.1806451614285714</v>
       </c>
       <c r="E13" t="n">
         <v>0.8959375080788066</v>
@@ -781,10 +781,10 @@
         <v>0.5390134361310499</v>
       </c>
       <c r="G13" t="n">
-        <v>132.3883557383322</v>
+        <v>894.378495071153</v>
       </c>
       <c r="H13" t="n">
-        <v>1906.392322631983</v>
+        <v>8049.406455640377</v>
       </c>
     </row>
     <row r="14">
@@ -792,13 +792,13 @@
         <v>0.294</v>
       </c>
       <c r="B14" t="n">
-        <v>150.7349929437055</v>
+        <v>1018.43796696344</v>
       </c>
       <c r="C14" t="n">
         <v>0.06999999999999999</v>
       </c>
       <c r="D14" t="n">
-        <v>0.7</v>
+        <v>0.21</v>
       </c>
       <c r="E14" t="n">
         <v>0.8608918250501044</v>
@@ -807,10 +807,10 @@
         <v>0.5390134361310499</v>
       </c>
       <c r="G14" t="n">
-        <v>129.7665231742213</v>
+        <v>876.764920079474</v>
       </c>
       <c r="H14" t="n">
-        <v>1868.637933708786</v>
+        <v>7890.884280715266</v>
       </c>
     </row>
     <row r="15">
@@ -818,13 +818,13 @@
         <v>0.336</v>
       </c>
       <c r="B15" t="n">
-        <v>152.8612883504711</v>
+        <v>1032.886100572154</v>
       </c>
       <c r="C15" t="n">
         <v>0.08</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8</v>
+        <v>0.24</v>
       </c>
       <c r="E15" t="n">
         <v>0.8309611465889485</v>
@@ -833,10 +833,10 @@
         <v>0.5390134361310499</v>
       </c>
       <c r="G15" t="n">
-        <v>127.0217914367713</v>
+        <v>858.288218427225</v>
       </c>
       <c r="H15" t="n">
-        <v>1829.113796689507</v>
+        <v>7724.593965845025</v>
       </c>
     </row>
     <row r="16">
@@ -844,13 +844,13 @@
         <v>0.378451613</v>
       </c>
       <c r="B16" t="n">
-        <v>154.4126670216177</v>
+        <v>1043.428723300355</v>
       </c>
       <c r="C16" t="n">
         <v>0.09010752690476191</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9010752690476191</v>
+        <v>0.2703225807142857</v>
       </c>
       <c r="E16" t="n">
         <v>0.8051705483555526</v>
@@ -859,10 +859,10 @@
         <v>0.5390134361310499</v>
       </c>
       <c r="G16" t="n">
-        <v>124.3285317788393</v>
+        <v>840.138077309681</v>
       </c>
       <c r="H16" t="n">
-        <v>1790.330857615286</v>
+        <v>7561.242695787128</v>
       </c>
     </row>
     <row r="17">
@@ -870,13 +870,13 @@
         <v>0.42</v>
       </c>
       <c r="B17" t="n">
-        <v>155.5436055780259</v>
+        <v>1051.114846673769</v>
       </c>
       <c r="C17" t="n">
         <v>0.09999999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999999999999999</v>
+        <v>0.3</v>
       </c>
       <c r="E17" t="n">
         <v>0.7832484866250408</v>
@@ -885,10 +885,10 @@
         <v>0.5390134361310499</v>
       </c>
       <c r="G17" t="n">
-        <v>121.829293673191</v>
+        <v>823.2841129263414</v>
       </c>
       <c r="H17" t="n">
-        <v>1754.341828893951</v>
+        <v>7409.557016337073</v>
       </c>
     </row>
   </sheetData>
